--- a/SchedulingData/static6/pso/scheduling1_16.xlsx
+++ b/SchedulingData/static6/pso/scheduling1_16.xlsx
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>45.1</v>
+        <v>59.04</v>
       </c>
       <c r="E2" t="n">
-        <v>27.68</v>
+        <v>25.776</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>78.94</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>26.776</v>
+        <v>24.54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>78.94</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>117.96</v>
+        <v>77.2</v>
       </c>
       <c r="E4" t="n">
-        <v>24.004</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>117.96</v>
+        <v>59.04</v>
       </c>
       <c r="D5" t="n">
-        <v>186.18</v>
+        <v>103.06</v>
       </c>
       <c r="E5" t="n">
-        <v>20.812</v>
+        <v>23.004</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>77.2</v>
       </c>
       <c r="D6" t="n">
-        <v>89.34</v>
+        <v>154.3</v>
       </c>
       <c r="E6" t="n">
-        <v>25.736</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="7">
@@ -561,74 +561,74 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>103.06</v>
       </c>
       <c r="D7" t="n">
-        <v>100.64</v>
+        <v>155.96</v>
       </c>
       <c r="E7" t="n">
-        <v>25.576</v>
+        <v>19.344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>154.3</v>
       </c>
       <c r="D8" t="n">
-        <v>92.09999999999999</v>
+        <v>228.7</v>
       </c>
       <c r="E8" t="n">
-        <v>24.96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>92.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>143.9</v>
+        <v>64.42</v>
       </c>
       <c r="E9" t="n">
-        <v>21.4</v>
+        <v>25.728</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>45.1</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>119</v>
+        <v>149.1</v>
       </c>
       <c r="E10" t="n">
-        <v>22.4</v>
+        <v>20.86</v>
       </c>
     </row>
     <row r="11">
@@ -637,226 +637,226 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>100.64</v>
+        <v>155.96</v>
       </c>
       <c r="D11" t="n">
-        <v>148.74</v>
+        <v>210.36</v>
       </c>
       <c r="E11" t="n">
-        <v>21.896</v>
+        <v>16.044</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>119</v>
+        <v>149.1</v>
       </c>
       <c r="D12" t="n">
-        <v>167.68</v>
+        <v>206.84</v>
       </c>
       <c r="E12" t="n">
-        <v>19.152</v>
+        <v>16.716</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>167.68</v>
+        <v>210.36</v>
       </c>
       <c r="D13" t="n">
-        <v>241.64</v>
+        <v>290.4</v>
       </c>
       <c r="E13" t="n">
-        <v>15.356</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>241.64</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>299.7</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>11.66</v>
+        <v>25.164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>148.74</v>
+        <v>206.84</v>
       </c>
       <c r="D15" t="n">
-        <v>216.44</v>
+        <v>270.34</v>
       </c>
       <c r="E15" t="n">
-        <v>18.256</v>
+        <v>13.956</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>143.9</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>217.82</v>
+        <v>83.12</v>
       </c>
       <c r="E16" t="n">
-        <v>17.128</v>
+        <v>24.848</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>83.12</v>
       </c>
       <c r="D17" t="n">
-        <v>64.90000000000001</v>
+        <v>130.02</v>
       </c>
       <c r="E17" t="n">
-        <v>25.2</v>
+        <v>21.288</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>299.7</v>
+        <v>290.4</v>
       </c>
       <c r="D18" t="n">
-        <v>352.14</v>
+        <v>331.94</v>
       </c>
       <c r="E18" t="n">
-        <v>8.536</v>
+        <v>8.596</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>217.82</v>
+        <v>130.02</v>
       </c>
       <c r="D19" t="n">
-        <v>279.32</v>
+        <v>173.8</v>
       </c>
       <c r="E19" t="n">
-        <v>13.588</v>
+        <v>18.04</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>216.44</v>
+        <v>64.42</v>
       </c>
       <c r="D20" t="n">
-        <v>284.16</v>
+        <v>126.78</v>
       </c>
       <c r="E20" t="n">
-        <v>13.104</v>
+        <v>20.632</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>284.16</v>
+        <v>74.95999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>338.46</v>
+        <v>133.26</v>
       </c>
       <c r="E21" t="n">
-        <v>10.784</v>
+        <v>21.444</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>89.34</v>
+        <v>173.8</v>
       </c>
       <c r="D22" t="n">
-        <v>169</v>
+        <v>227.06</v>
       </c>
       <c r="E22" t="n">
-        <v>20.9</v>
+        <v>14.344</v>
       </c>
     </row>
     <row r="23">
@@ -865,131 +865,131 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>64.90000000000001</v>
+        <v>228.7</v>
       </c>
       <c r="D23" t="n">
-        <v>114.3</v>
+        <v>286.62</v>
       </c>
       <c r="E23" t="n">
-        <v>21.4</v>
+        <v>14.808</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>338.46</v>
+        <v>227.06</v>
       </c>
       <c r="D24" t="n">
-        <v>420.5</v>
+        <v>275.5</v>
       </c>
       <c r="E24" t="n">
-        <v>7.2</v>
+        <v>11.12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>279.32</v>
+        <v>286.62</v>
       </c>
       <c r="D25" t="n">
-        <v>357.54</v>
+        <v>349.32</v>
       </c>
       <c r="E25" t="n">
-        <v>9.375999999999999</v>
+        <v>11.168</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>114.3</v>
+        <v>126.78</v>
       </c>
       <c r="D26" t="n">
-        <v>180.2</v>
+        <v>187.96</v>
       </c>
       <c r="E26" t="n">
-        <v>15.94</v>
+        <v>18.124</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>180.2</v>
+        <v>133.26</v>
       </c>
       <c r="D27" t="n">
-        <v>247</v>
+        <v>193.5</v>
       </c>
       <c r="E27" t="n">
-        <v>11.86</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>420.5</v>
+        <v>275.5</v>
       </c>
       <c r="D28" t="n">
-        <v>503</v>
+        <v>349.7</v>
       </c>
       <c r="E28" t="n">
-        <v>3.54</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>169</v>
+        <v>270.34</v>
       </c>
       <c r="D29" t="n">
-        <v>240.14</v>
+        <v>336.94</v>
       </c>
       <c r="E29" t="n">
-        <v>16.896</v>
+        <v>8.916</v>
       </c>
     </row>
     <row r="30">
@@ -998,150 +998,150 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>503</v>
+        <v>331.94</v>
       </c>
       <c r="D30" t="n">
-        <v>562.92</v>
+        <v>405.76</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>5.824</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562.92</v>
+        <v>187.96</v>
       </c>
       <c r="D31" t="n">
-        <v>640.3</v>
+        <v>270.02</v>
       </c>
       <c r="E31" t="n">
-        <v>26.412</v>
+        <v>13.028</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>352.14</v>
+        <v>336.94</v>
       </c>
       <c r="D32" t="n">
-        <v>428.84</v>
+        <v>385.46</v>
       </c>
       <c r="E32" t="n">
-        <v>3.976</v>
+        <v>4.704</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>186.18</v>
+        <v>349.32</v>
       </c>
       <c r="D33" t="n">
-        <v>245.92</v>
+        <v>417.36</v>
       </c>
       <c r="E33" t="n">
-        <v>16.948</v>
+        <v>7.944</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>245.92</v>
+        <v>417.36</v>
       </c>
       <c r="D34" t="n">
-        <v>313.18</v>
+        <v>476.52</v>
       </c>
       <c r="E34" t="n">
-        <v>11.852</v>
+        <v>4.148</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>313.18</v>
+        <v>385.46</v>
       </c>
       <c r="D35" t="n">
-        <v>370.54</v>
+        <v>443.84</v>
       </c>
       <c r="E35" t="n">
-        <v>6.756</v>
+        <v>1.976</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>240.14</v>
+        <v>443.84</v>
       </c>
       <c r="D36" t="n">
-        <v>285.38</v>
+        <v>536.29</v>
       </c>
       <c r="E36" t="n">
-        <v>13.992</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>428.84</v>
+        <v>270.02</v>
       </c>
       <c r="D37" t="n">
-        <v>476.34</v>
+        <v>326.52</v>
       </c>
       <c r="E37" t="n">
-        <v>0.856</v>
+        <v>9.488</v>
       </c>
     </row>
     <row r="38">
@@ -1150,55 +1150,55 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>476.34</v>
+        <v>349.7</v>
       </c>
       <c r="D38" t="n">
-        <v>546.53</v>
+        <v>416.54</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>3.736</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>285.38</v>
+        <v>416.54</v>
       </c>
       <c r="D39" t="n">
-        <v>353.78</v>
+        <v>475.52</v>
       </c>
       <c r="E39" t="n">
-        <v>10.272</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>370.54</v>
+        <v>475.52</v>
       </c>
       <c r="D40" t="n">
-        <v>434.64</v>
+        <v>545.66</v>
       </c>
       <c r="E40" t="n">
-        <v>3.456</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
@@ -1207,150 +1207,150 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>546.53</v>
+        <v>545.66</v>
       </c>
       <c r="D41" t="n">
-        <v>591.61</v>
+        <v>580.76</v>
       </c>
       <c r="E41" t="n">
-        <v>27.192</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>353.78</v>
+        <v>405.76</v>
       </c>
       <c r="D42" t="n">
-        <v>421.52</v>
+        <v>458.3</v>
       </c>
       <c r="E42" t="n">
-        <v>6.128</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>247</v>
+        <v>193.5</v>
       </c>
       <c r="D43" t="n">
-        <v>322.64</v>
+        <v>257.6</v>
       </c>
       <c r="E43" t="n">
-        <v>8.375999999999999</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>434.64</v>
+        <v>257.6</v>
       </c>
       <c r="D44" t="n">
-        <v>488.54</v>
+        <v>316.54</v>
       </c>
       <c r="E44" t="n">
-        <v>0.696</v>
+        <v>8.996</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>488.54</v>
+        <v>458.3</v>
       </c>
       <c r="D45" t="n">
-        <v>559.05</v>
+        <v>495.52</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>322.64</v>
+        <v>495.52</v>
       </c>
       <c r="D46" t="n">
-        <v>366.28</v>
+        <v>581.9</v>
       </c>
       <c r="E46" t="n">
-        <v>5.152</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>591.61</v>
+        <v>581.9</v>
       </c>
       <c r="D47" t="n">
-        <v>650.63</v>
+        <v>623.74</v>
       </c>
       <c r="E47" t="n">
-        <v>24.42</v>
+        <v>26.516</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>357.54</v>
+        <v>316.54</v>
       </c>
       <c r="D48" t="n">
-        <v>403.72</v>
+        <v>408.24</v>
       </c>
       <c r="E48" t="n">
-        <v>6.868</v>
+        <v>4.436</v>
       </c>
     </row>
     <row r="49">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>421.52</v>
+        <v>408.24</v>
       </c>
       <c r="D49" t="n">
-        <v>463.06</v>
+        <v>472.14</v>
       </c>
       <c r="E49" t="n">
-        <v>3.104</v>
+        <v>2.116</v>
       </c>
     </row>
     <row r="50">
@@ -1378,74 +1378,74 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>366.28</v>
+        <v>476.52</v>
       </c>
       <c r="D50" t="n">
-        <v>434.36</v>
+        <v>533.5</v>
       </c>
       <c r="E50" t="n">
-        <v>2.424</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>403.72</v>
+        <v>533.5</v>
       </c>
       <c r="D51" t="n">
-        <v>455.64</v>
+        <v>633.88</v>
       </c>
       <c r="E51" t="n">
-        <v>4.276</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>434.36</v>
+        <v>326.52</v>
       </c>
       <c r="D52" t="n">
-        <v>525.91</v>
+        <v>407.26</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
+        <v>5.484</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>525.91</v>
+        <v>536.29</v>
       </c>
       <c r="D53" t="n">
-        <v>584.95</v>
+        <v>606.73</v>
       </c>
       <c r="E53" t="n">
-        <v>25.776</v>
+        <v>26.136</v>
       </c>
     </row>
   </sheetData>
